--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Fzd7</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Fzd7</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H2">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I2">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J2">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N2">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O2">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P2">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q2">
-        <v>0.07967407514444445</v>
+        <v>0.071199595968</v>
       </c>
       <c r="R2">
-        <v>0.7170666763</v>
+        <v>0.640796363712</v>
       </c>
       <c r="S2">
-        <v>0.0005896393566459394</v>
+        <v>0.0004991886635987623</v>
       </c>
       <c r="T2">
-        <v>0.0006649019545721512</v>
+        <v>0.0005261633125454037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J3">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.133219</v>
       </c>
       <c r="O3">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P3">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q3">
-        <v>0.4138345196642222</v>
+        <v>0.4376660068853333</v>
       </c>
       <c r="R3">
-        <v>3.724510676977999</v>
+        <v>3.938994061967999</v>
       </c>
       <c r="S3">
-        <v>0.003062641386050755</v>
+        <v>0.003068527371670608</v>
       </c>
       <c r="T3">
-        <v>0.003453562284787377</v>
+        <v>0.00323434133074021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H4">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I4">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J4">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N4">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O4">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P4">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q4">
-        <v>0.3139936559817779</v>
+        <v>0.4281670499306667</v>
       </c>
       <c r="R4">
-        <v>2.825942903836</v>
+        <v>3.853503449376</v>
       </c>
       <c r="S4">
-        <v>0.002323754834534928</v>
+        <v>0.003001929077630942</v>
       </c>
       <c r="T4">
-        <v>0.002620362962570232</v>
+        <v>0.003164144265868664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H5">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I5">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J5">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N5">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O5">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P5">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q5">
-        <v>0.4954719557406667</v>
+        <v>0.262825699624</v>
       </c>
       <c r="R5">
-        <v>2.972831734444</v>
+        <v>1.576954197744</v>
       </c>
       <c r="S5">
-        <v>0.003666810875298917</v>
+        <v>0.001842701604847319</v>
       </c>
       <c r="T5">
-        <v>0.002756566015653144</v>
+        <v>0.001294850425821516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H6">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I6">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J6">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N6">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O6">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P6">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q6">
-        <v>0.2085430876706667</v>
+        <v>0.5090207388426667</v>
       </c>
       <c r="R6">
-        <v>1.876887789036</v>
+        <v>4.581186649584001</v>
       </c>
       <c r="S6">
-        <v>0.001543352863828804</v>
+        <v>0.003568803711767229</v>
       </c>
       <c r="T6">
-        <v>0.001740349120505685</v>
+        <v>0.003761651094539065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>16.977119</v>
       </c>
       <c r="I7">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J7">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N7">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O7">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P7">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q7">
-        <v>6.948640489372224</v>
+        <v>5.871434743436001</v>
       </c>
       <c r="R7">
-        <v>62.53776440435001</v>
+        <v>52.842912690924</v>
       </c>
       <c r="S7">
-        <v>0.05142440499358661</v>
+        <v>0.04116531313324374</v>
       </c>
       <c r="T7">
-        <v>0.05798830591540212</v>
+        <v>0.04338976242771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>16.977119</v>
       </c>
       <c r="I8">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J8">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.133219</v>
       </c>
       <c r="O8">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P8">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q8">
         <v>36.09188175734011</v>
@@ -948,10 +948,10 @@
         <v>324.826935816061</v>
       </c>
       <c r="S8">
-        <v>0.2671031185609344</v>
+        <v>0.2530443884724933</v>
       </c>
       <c r="T8">
-        <v>0.3011966273990156</v>
+        <v>0.2667181435969676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>16.977119</v>
       </c>
       <c r="I9">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J9">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N9">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O9">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P9">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q9">
-        <v>27.3844287166869</v>
+        <v>35.30855560033356</v>
       </c>
       <c r="R9">
-        <v>246.4598584501821</v>
+        <v>317.777000403002</v>
       </c>
       <c r="S9">
-        <v>0.2026623704304116</v>
+        <v>0.2475523975115642</v>
       </c>
       <c r="T9">
-        <v>0.2285305495615342</v>
+        <v>0.2609293820180498</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>16.977119</v>
       </c>
       <c r="I10">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J10">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N10">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O10">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P10">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q10">
-        <v>43.21175346894633</v>
+        <v>21.67377389239384</v>
       </c>
       <c r="R10">
-        <v>259.270520813678</v>
+        <v>130.042643354363</v>
       </c>
       <c r="S10">
-        <v>0.3197947446365695</v>
+        <v>0.1519573542151624</v>
       </c>
       <c r="T10">
-        <v>0.2404092698066356</v>
+        <v>0.1067791140435443</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>16.977119</v>
       </c>
       <c r="I11">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J11">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N11">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O11">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P11">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q11">
-        <v>18.18773471973134</v>
+        <v>41.9761097031159</v>
       </c>
       <c r="R11">
-        <v>163.689612477582</v>
+        <v>377.7849873280431</v>
       </c>
       <c r="S11">
-        <v>0.1346009248246314</v>
+        <v>0.2942993962380214</v>
       </c>
       <c r="T11">
-        <v>0.1517816220955829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.153465</v>
-      </c>
-      <c r="I12">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J12">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.227883333333333</v>
-      </c>
-      <c r="N12">
-        <v>3.68365</v>
-      </c>
-      <c r="O12">
-        <v>0.05271132222573729</v>
-      </c>
-      <c r="P12">
-        <v>0.05917739429803119</v>
-      </c>
-      <c r="Q12">
-        <v>0.09421855787500003</v>
-      </c>
-      <c r="R12">
-        <v>0.5653113472500001</v>
-      </c>
-      <c r="S12">
-        <v>0.0006972778755047398</v>
-      </c>
-      <c r="T12">
-        <v>0.0005241864280569152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.153465</v>
-      </c>
-      <c r="I13">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J13">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.377739666666666</v>
-      </c>
-      <c r="N13">
-        <v>19.133219</v>
-      </c>
-      <c r="O13">
-        <v>0.2737874857612962</v>
-      </c>
-      <c r="P13">
-        <v>0.3073728625014814</v>
-      </c>
-      <c r="Q13">
-        <v>0.4893799089725</v>
-      </c>
-      <c r="R13">
-        <v>2.936279453835</v>
-      </c>
-      <c r="S13">
-        <v>0.003621725814311055</v>
-      </c>
-      <c r="T13">
-        <v>0.002722672817678308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.153465</v>
-      </c>
-      <c r="I14">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J14">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>4.839059333333334</v>
-      </c>
-      <c r="N14">
-        <v>14.517178</v>
-      </c>
-      <c r="O14">
-        <v>0.2077340809703377</v>
-      </c>
-      <c r="P14">
-        <v>0.2332167189067104</v>
-      </c>
-      <c r="Q14">
-        <v>0.3713131202950001</v>
-      </c>
-      <c r="R14">
-        <v>2.22787872177</v>
-      </c>
-      <c r="S14">
-        <v>0.00274795570539116</v>
-      </c>
-      <c r="T14">
-        <v>0.002065806382605956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.153465</v>
-      </c>
-      <c r="I15">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J15">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>7.635880999999999</v>
-      </c>
-      <c r="N15">
-        <v>15.271762</v>
-      </c>
-      <c r="O15">
-        <v>0.3277977418064026</v>
-      </c>
-      <c r="P15">
-        <v>0.2453390201294068</v>
-      </c>
-      <c r="Q15">
-        <v>0.5859202388325</v>
-      </c>
-      <c r="R15">
-        <v>2.34368095533</v>
-      </c>
-      <c r="S15">
-        <v>0.004336186294534232</v>
-      </c>
-      <c r="T15">
-        <v>0.002173184307118029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.153465</v>
-      </c>
-      <c r="I16">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J16">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.213926</v>
-      </c>
-      <c r="N16">
-        <v>9.641778</v>
-      </c>
-      <c r="O16">
-        <v>0.1379693692362262</v>
-      </c>
-      <c r="P16">
-        <v>0.1548940041643703</v>
-      </c>
-      <c r="Q16">
-        <v>0.246612576795</v>
-      </c>
-      <c r="R16">
-        <v>1.47967546077</v>
-      </c>
-      <c r="S16">
-        <v>0.001825091547766031</v>
-      </c>
-      <c r="T16">
-        <v>0.001372032948281663</v>
+        <v>0.3102024474842133</v>
       </c>
     </row>
   </sheetData>
